--- a/notion_data/THONG_TIN_KHACH_HANG.xlsx
+++ b/notion_data/THONG_TIN_KHACH_HANG.xlsx
@@ -64791,7 +64791,7 @@
         </is>
       </c>
       <c r="AJ236" t="n">
-        <v>-9000000</v>
+        <v>0</v>
       </c>
       <c r="AK236" t="inlineStr">
         <is>
@@ -64871,7 +64871,7 @@
         </is>
       </c>
       <c r="BB236" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
       <c r="BC236" t="inlineStr">
         <is>
